--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/detailTab.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/detailTab.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -210,21 +210,12 @@
     <t>modify_name_errorMsg_one</t>
   </si>
   <si>
-    <t>Must provide a name</t>
-  </si>
-  <si>
     <t>modify_name_errorMsg_two</t>
   </si>
   <si>
-    <t>The name length cannot exceed 32 characters</t>
-  </si>
-  <si>
     <t>modify_name_errorMsg_three</t>
   </si>
   <si>
-    <t>Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”</t>
-  </si>
-  <si>
     <t>modify_desc_errorMsg_one</t>
   </si>
   <si>
@@ -763,6 +754,18 @@
       </rPr>
       <t xml:space="preserve"> '</t>
     </r>
+  </si>
+  <si>
+    <t>The length of name cannot exceed 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name cannot be blank.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1161,15 +1164,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="32.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="32.625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1178,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1189,7 +1191,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1200,7 +1202,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -1211,7 +1213,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -1222,7 +1224,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -1233,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
@@ -1244,7 +1246,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>13</v>
@@ -1255,7 +1257,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>15</v>
@@ -1266,7 +1268,7 @@
         <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1277,7 +1279,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>19</v>
@@ -1288,7 +1290,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>21</v>
@@ -1299,7 +1301,7 @@
         <v>22</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1310,7 +1312,7 @@
         <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>25</v>
@@ -1321,7 +1323,7 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>27</v>
@@ -1332,7 +1334,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -1343,7 +1345,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>31</v>
@@ -1354,7 +1356,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -1365,7 +1367,7 @@
         <v>34</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>35</v>
@@ -1376,7 +1378,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>37</v>
@@ -1387,7 +1389,7 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>39</v>
@@ -1398,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>41</v>
@@ -1409,7 +1411,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>43</v>
@@ -1420,7 +1422,7 @@
         <v>44</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>45</v>
@@ -1431,7 +1433,7 @@
         <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>47</v>
@@ -1442,7 +1444,7 @@
         <v>48</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>49</v>
@@ -1453,7 +1455,7 @@
         <v>50</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>51</v>
@@ -1464,7 +1466,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>53</v>
@@ -1475,7 +1477,7 @@
         <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>55</v>
@@ -1486,7 +1488,7 @@
         <v>56</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>57</v>
@@ -1497,7 +1499,7 @@
         <v>58</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>59</v>
@@ -1508,7 +1510,7 @@
         <v>60</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>61</v>
@@ -1519,61 +1521,61 @@
         <v>62</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C36 A1:A36" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C31 A1:A36 C35:C36" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>